--- a/data/georgia_census/imereti/tyibuli/education_graduates.xlsx
+++ b/data/georgia_census/imereti/tyibuli/education_graduates.xlsx
@@ -1812,13 +1812,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32A08EEB-E595-4D3D-B47F-5FE928E9295F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792EBB23-DB47-4331-B95A-EDF295EC1416}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E55D9C47-2C9F-4FB3-8EE1-508E276C176F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D311A3B1-ED6A-4881-8977-3B17C6D21A8E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A0C4EF0-6823-4871-BA09-5F1BFC0375FA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56341A6A-7924-4F24-83A2-2FA5CB3F2A48}"/>
 </file>